--- a/output/dd_results.xlsx
+++ b/output/dd_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ri" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ri" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -465,13 +465,13 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.621300145648065</v>
+        <v>-2.810650072824032</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02548347211253153</v>
+        <v>-0.01274173605626577</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.532792155339339e-132</v>
+        <v>-1.766396077669669e-132</v>
       </c>
       <c r="E2" t="n">
         <v>-0</v>
@@ -482,13 +482,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.933673720783075</v>
+        <v>-4.966836860391537</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.727184796053608</v>
+        <v>-0.8635923980268039</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.320306812160833e-15</v>
+        <v>-3.660153406080416e-15</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -499,13 +499,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-11.24416451229928</v>
+        <v>-5.62208225614964</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.787720140399715</v>
+        <v>-1.393860070199857</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.125710355514594e-08</v>
+        <v>-2.062855177757297e-08</v>
       </c>
       <c r="E4" t="n">
         <v>-0</v>
@@ -516,16 +516,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-12.97857130567813</v>
+        <v>-6.489285652839063</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.363143424134803</v>
+        <v>-2.181571712067401</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0007205778484173221</v>
+        <v>-0.000360288924208661</v>
       </c>
       <c r="E5" t="n">
-        <v>-9.851495466798939e-262</v>
+        <v>-4.925747733399469e-262</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-14.29131467597836</v>
+        <v>-7.145657337989179</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.621300145648065</v>
+        <v>-2.810650072824032</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02548347211253153</v>
+        <v>-0.01274173605626577</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.532792155339339e-132</v>
+        <v>-1.766396077669669e-132</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>-15.60433990155105</v>
+        <v>-7.802169950775526</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.906724585937067</v>
+        <v>-3.453362292968533</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1928960953283537</v>
+        <v>-0.09644804766417686</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.984458036149868e-67</v>
+        <v>-1.492229018074934e-67</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>50</v>
       </c>
       <c r="B8" t="n">
-        <v>-17.34026835112697</v>
+        <v>-8.670134175563485</v>
       </c>
       <c r="C8" t="n">
-        <v>-8.625993002545316</v>
+        <v>-4.312996501272658</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8692189803346136</v>
+        <v>-0.4346094901673068</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.41435714401061e-28</v>
+        <v>-2.207178572005305e-28</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>100</v>
       </c>
       <c r="B9" t="n">
-        <v>-18.65351910621979</v>
+        <v>-9.326759553109893</v>
       </c>
       <c r="C9" t="n">
-        <v>-9.933673720783075</v>
+        <v>-4.966836860391537</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.727184796053608</v>
+        <v>-0.8635923980268039</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.320306812160833e-15</v>
+        <v>-3.660153406080416e-15</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>200</v>
       </c>
       <c r="B10" t="n">
-        <v>-19.96679805533442</v>
+        <v>-9.983399027667209</v>
       </c>
       <c r="C10" t="n">
-        <v>-11.24416451229928</v>
+        <v>-5.62208225614964</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.787720140399715</v>
+        <v>-1.393860070199857</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.125710355514594e-08</v>
+        <v>-2.062855177757297e-08</v>
       </c>
     </row>
     <row r="11">
@@ -618,19 +618,19 @@
         <v>500</v>
       </c>
       <c r="B11" t="n">
-        <v>-21.70287874900329</v>
+        <v>-10.85143937450164</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.97857130567813</v>
+        <v>-6.489285652839063</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.363143424134803</v>
+        <v>-2.181571712067401</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0007205778484173221</v>
+        <v>-0.000360288924208661</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/dd_results.xlsx
+++ b/output/dd_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,35 +598,52 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B10" t="n">
-        <v>-9.983399027667209</v>
+        <v>-9.710867870420591</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.62208225614964</v>
+        <v>-5.35001590820422</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.393860070199857</v>
+        <v>-1.164464262321797</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.062855177757297e-08</v>
+        <v>-1.100404895081738e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-9.983399027667209</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5.62208225614964</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.393860070199857</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-2.062855177757297e-08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>-10.85143937450164</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>-6.489285652839063</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>-2.181571712067401</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>-0.000360288924208661</v>
       </c>
     </row>

--- a/output/dd_results.xlsx
+++ b/output/dd_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,27 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Radius</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>r50</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>r500</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>r5000</t>
+          <t>displacement</t>
         </is>
       </c>
     </row>
@@ -465,16 +450,7 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.810650072824032</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.01274173605626577</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-1.766396077669669e-132</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0</v>
+        <v>-17.89108913716158</v>
       </c>
     </row>
     <row r="3">
@@ -482,169 +458,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.966836860391537</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.8635923980268039</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-3.660153406080416e-15</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0</v>
+        <v>-13.52837723906975</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.62208225614964</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-1.393860070199857</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-2.062855177757297e-08</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0</v>
+        <v>-9.165665340977919</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.489285652839063</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-2.181571712067401</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.000360288924208661</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-4.925747733399469e-262</v>
+        <v>-4.802953442886087</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.145657337989179</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-2.810650072824032</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.01274173605626577</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-1.766396077669669e-132</v>
+        <v>-1.753548688560039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.802169950775526</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-3.453362292968533</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.09644804766417686</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-1.492229018074934e-67</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-8.670134175563485</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-4.312996501272658</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.4346094901673068</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-2.207178572005305e-28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-9.326759553109893</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-4.966836860391537</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.8635923980268039</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-3.660153406080416e-15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-9.710867870420591</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-5.35001590820422</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-1.164464262321797</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1.100404895081738e-10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-9.983399027667209</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-5.62208225614964</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-1.393860070199857</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-2.062855177757297e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-10.85143937450164</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-6.489285652839063</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-2.181571712067401</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.000360288924208661</v>
+        <v>-0.4402415447942559</v>
       </c>
     </row>
   </sheetData>

--- a/output/dd_results.xlsx
+++ b/output/dd_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Radius</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>displacement</t>
+          <t>r5</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>r50</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>r500</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>r5000</t>
         </is>
       </c>
     </row>
@@ -450,7 +465,16 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>-17.89108913716158</v>
+        <v>-2.810650072824032</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.01274173605626577</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.766396077669669e-132</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -458,39 +482,169 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-13.52837723906975</v>
+        <v>-4.966836860391537</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.8635923980268039</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3.660153406080416e-15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.165665340977919</v>
+        <v>-5.62208225614964</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.393860070199857</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.062855177757297e-08</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.802953442886087</v>
+        <v>-6.489285652839063</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.181571712067401</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.000360288924208661</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-4.925747733399469e-262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.753548688560039</v>
+        <v>-7.145657337989179</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.810650072824032</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.01274173605626577</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.766396077669669e-132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4402415447942559</v>
+        <v>-7.802169950775526</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3.453362292968533</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.09644804766417686</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.492229018074934e-67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-8.670134175563485</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-4.312996501272658</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.4346094901673068</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.207178572005305e-28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-9.326759553109893</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.966836860391537</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.8635923980268039</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-3.660153406080416e-15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-9.710867870420591</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.35001590820422</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.164464262321797</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.100404895081738e-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-9.983399027667209</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5.62208225614964</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.393860070199857</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-2.062855177757297e-08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-10.85143937450164</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-6.489285652839063</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2.181571712067401</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.000360288924208661</v>
       </c>
     </row>
   </sheetData>
